--- a/trunk/HT/forum_helper.xlsx
+++ b/trunk/HT/forum_helper.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="300" windowWidth="16932" windowHeight="10848"/>
+    <workbookView xWindow="768" yWindow="300" windowWidth="16932" windowHeight="10848" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="maratontabell" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Fed help" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t>Lag</t>
   </si>
@@ -58,6 +58,57 @@
   </si>
   <si>
     <t>[/table]</t>
+  </si>
+  <si>
+    <t>Apply</t>
+  </si>
+  <si>
+    <t>All Home-Grown</t>
+  </si>
+  <si>
+    <t>Home-Grown</t>
+  </si>
+  <si>
+    <t>Wannabe home-grown</t>
+  </si>
+  <si>
+    <t>Visitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Free for All</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Max no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>All Purely Home-Grown</t>
+  </si>
+  <si>
+    <t>Purely Home-Grown</t>
+  </si>
+  <si>
+    <t>Almost Purely Home-Grown</t>
+  </si>
+  <si>
+    <t>Wannabe Purely Home-Grown</t>
+  </si>
+  <si>
+    <t>Almost Home-Grown</t>
+  </si>
+  <si>
+    <t>President</t>
   </si>
 </sst>
 </file>
@@ -391,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -489,7 +540,7 @@
         <v>[td]1. Granviks BK[/td]</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:Q5" si="1">CONCATENATE("[td]",B3,"[/td]")</f>
+        <f t="shared" ref="K3:P5" si="1">CONCATENATE("[td]",B3,"[/td]")</f>
         <v>[td]196[/td]</v>
       </c>
       <c r="L3" t="str">
@@ -643,12 +694,437 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="str">
+        <f>CONCATENATE("[th]",A2,"[/th]")</f>
+        <v>[th]Office[/th]</v>
+      </c>
+      <c r="K2" t="str">
+        <f>CONCATENATE("[th]",B2,"[/th]")</f>
+        <v>[th] Level[/th]</v>
+      </c>
+      <c r="L2" t="str">
+        <f>CONCATENATE("[th]",C2,"[/th]")</f>
+        <v>[th] Max no.[/th]</v>
+      </c>
+      <c r="M2" t="str">
+        <f>CONCATENATE("[th]",D2,"[/th]")</f>
+        <v>[th] Type[/th]</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3" si="0">CONCATENATE("[td]",A3,"[/td]")</f>
+        <v>[td]President[/td]</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:M3" si="1">CONCATENATE("[td]",B3,"[/td]")</f>
+        <v>[td]100[/td]</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]1[/td]</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]Apply[/td]</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J12" si="2">CONCATENATE("[td]",A4,"[/td]")</f>
+        <v>[td]All Purely Home-Grown[/td]</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K12" si="3">CONCATENATE("[td]",B4,"[/td]")</f>
+        <v>[td]90[/td]</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L12" si="4">CONCATENATE("[td]",C4,"[/td]")</f>
+        <v>[td]50[/td]</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M12" si="5">CONCATENATE("[td]",D4,"[/td]")</f>
+        <v>[td]Apply[/td]</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>[td]All Home-Grown[/td]</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="3"/>
+        <v>[td]80[/td]</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="4"/>
+        <v>[td]50[/td]</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="5"/>
+        <v>[td]Apply[/td]</v>
+      </c>
+      <c r="N5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>[td]Purely Home-Grown[/td]</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="3"/>
+        <v>[td]75[/td]</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="4"/>
+        <v>[td]50[/td]</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="5"/>
+        <v>[td]Apply[/td]</v>
+      </c>
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>[td]Home-Grown[/td]</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="3"/>
+        <v>[td]70[/td]</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="4"/>
+        <v>[td]50[/td]</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="5"/>
+        <v>[td]Apply[/td]</v>
+      </c>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>[td]Almost Purely Home-Grown[/td]</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="3"/>
+        <v>[td]35[/td]</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="4"/>
+        <v>[td]50[/td]</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="5"/>
+        <v>[td]Apply[/td]</v>
+      </c>
+      <c r="N8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>[td]Almost Home-Grown[/td]</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="3"/>
+        <v>[td]60[/td]</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="4"/>
+        <v>[td]50[/td]</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="5"/>
+        <v>[td]Apply[/td]</v>
+      </c>
+      <c r="N9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>[td]Wannabe Purely Home-Grown[/td]</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="3"/>
+        <v>[td]50[/td]</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="4"/>
+        <v>[td]100[/td]</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="5"/>
+        <v>[td]Apply[/td]</v>
+      </c>
+      <c r="N10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>[td]Wannabe home-grown[/td]</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="3"/>
+        <v>[td]40[/td]</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="4"/>
+        <v>[td]100[/td]</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="5"/>
+        <v>[td]Apply[/td]</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>[td]Visitor[/td]</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="3"/>
+        <v>[td]1[/td]</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="4"/>
+        <v>[td]1000[/td]</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="5"/>
+        <v>[td] Free for All[/td]</v>
+      </c>
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
